--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF0E3ED-D4EB-417F-A194-F603BE8608E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7A7E1E-1B98-45AB-8388-93202874DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>1210_CAP</t>
+  </si>
+  <si>
+    <t>Unadded</t>
+  </si>
+  <si>
+    <t>Not added Desc</t>
+  </si>
+  <si>
+    <t>undefined</t>
   </si>
   <si>
     <t>Resistor 0201</t>
@@ -255,17 +264,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -288,7 +286,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -296,7 +296,24 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -306,18 +323,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,84 +702,84 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -769,22 +787,106 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f>C8</f>
+        <v>undefined</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f>C9</f>
+        <v>undefined</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>C10</f>
+        <v>undefined</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>C11</f>
+        <v>undefined</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -798,12 +900,12 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -841,7 +943,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -876,122 +978,122 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>30</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
+      <c r="A6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7A7E1E-1B98-45AB-8388-93202874DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2714789-398D-471E-918C-21B434710C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
     <sheet name="Connectors" sheetId="3" r:id="rId2"/>
-    <sheet name="Resistors" sheetId="2" r:id="rId3"/>
+    <sheet name="Inductor" sheetId="4" r:id="rId3"/>
+    <sheet name="Resistors" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -186,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -336,6 +331,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,11 +648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -666,7 +662,7 @@
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -706,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -726,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -746,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -766,7 +762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -786,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -806,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -827,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -848,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -869,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -897,23 +893,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFED894-6BBA-45B7-9CAD-9E7280E8A371}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,6 +928,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,14 +943,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6F2CF-213D-463C-85F9-9AB06805C7D3}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B31341-7EBF-45D4-8C01-C82BBE4DD72E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -956,7 +1002,7 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -996,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1016,7 +1062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1036,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -1056,7 +1102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -1076,7 +1122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2714789-398D-471E-918C-21B434710C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B260CD-E6DD-4DBB-8252-77E8283DCEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
-    <sheet name="Connectors" sheetId="3" r:id="rId2"/>
-    <sheet name="Inductor" sheetId="4" r:id="rId3"/>
-    <sheet name="Resistors" sheetId="2" r:id="rId4"/>
+    <sheet name="Resistors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +106,6 @@
     <t>1210_CAP</t>
   </si>
   <si>
-    <t>Unadded</t>
-  </si>
-  <si>
     <t>Not added Desc</t>
   </si>
   <si>
@@ -168,13 +163,13 @@
     <t>1206_RES</t>
   </si>
   <si>
-    <t>Resistor 1210</t>
-  </si>
-  <si>
-    <t>1210 Surface Res</t>
-  </si>
-  <si>
-    <t>1210_RES</t>
+    <t>Resistor 2512</t>
+  </si>
+  <si>
+    <t>2512 Surface Res</t>
+  </si>
+  <si>
+    <t>2512_RES</t>
   </si>
 </sst>
 </file>
@@ -318,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -331,7 +326,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,14 +797,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -824,14 +818,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -845,14 +839,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -866,14 +860,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
@@ -892,104 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFED894-6BBA-45B7-9CAD-9E7280E8A371}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6F2CF-213D-463C-85F9-9AB06805C7D3}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B31341-7EBF-45D4-8C01-C82BBE4DD72E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,122 +925,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B260CD-E6DD-4DBB-8252-77E8283DCEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF340DB4-CAEE-4F79-9DA1-F595A5AD8F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
     <sheet name="Resistors" sheetId="2" r:id="rId2"/>
+    <sheet name="Connectors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -104,12 +105,6 @@
   </si>
   <si>
     <t>1210_CAP</t>
-  </si>
-  <si>
-    <t>Not added Desc</t>
-  </si>
-  <si>
-    <t>undefined</t>
   </si>
   <si>
     <t>Resistor 0201</t>
@@ -225,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -309,11 +304,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -326,6 +373,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -756,129 +809,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f>C8</f>
-        <v>undefined</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>C9</f>
-        <v>undefined</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f>C10</f>
-        <v>undefined</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f>C11</f>
-        <v>undefined</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -889,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B31341-7EBF-45D4-8C01-C82BBE4DD72E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,122 +926,165 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD2047-1A58-4EE5-AEBF-88148076DD96}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF340DB4-CAEE-4F79-9DA1-F595A5AD8F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BAA111-3653-45CF-8470-BF0C78B390E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
     <sheet name="Resistors" sheetId="2" r:id="rId2"/>
-    <sheet name="Connectors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -165,6 +164,15 @@
   </si>
   <si>
     <t>2512_RES</t>
+  </si>
+  <si>
+    <t>1/4WDIP_RES</t>
+  </si>
+  <si>
+    <t>1/4W DIP Surface Res</t>
+  </si>
+  <si>
+    <t>1/4W DIP Resistor</t>
   </si>
 </sst>
 </file>
@@ -245,35 +253,11 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -356,29 +340,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +748,7 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -765,7 +768,7 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -785,12 +788,12 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -805,12 +808,12 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -825,61 +828,41 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,19 +871,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B31341-7EBF-45D4-8C01-C82BBE4DD72E}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -940,7 +923,7 @@
       <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -948,7 +931,7 @@
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -960,7 +943,7 @@
       <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -968,7 +951,7 @@
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -980,15 +963,15 @@
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1000,91 +983,68 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD2047-1A58-4EE5-AEBF-88148076DD96}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BAA111-3653-45CF-8470-BF0C78B390E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B37EE-CC83-462B-92A7-198BF67B5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
@@ -194,18 +194,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -364,24 +364,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,171 +703,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -873,177 +878,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B31341-7EBF-45D4-8C01-C82BBE4DD72E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B37EE-CC83-462B-92A7-198BF67B5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E866A16-70A3-47A8-9EE7-B88E559A4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
     <sheet name="Resistors" sheetId="2" r:id="rId2"/>
+    <sheet name="Connectors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Capacitor 0201</t>
   </si>
   <si>
-    <t>0201 Surface Cap</t>
-  </si>
-  <si>
     <t>0201_CAP</t>
   </si>
   <si>
@@ -64,54 +62,36 @@
     <t>Capacitor 0402</t>
   </si>
   <si>
-    <t>0402 Surface Cap</t>
-  </si>
-  <si>
     <t>0402_CAP</t>
   </si>
   <si>
     <t>Capacitor 0603</t>
   </si>
   <si>
-    <t>0603 Surface Cap</t>
-  </si>
-  <si>
     <t>0603_CAP</t>
   </si>
   <si>
     <t>Capacitor 0805</t>
   </si>
   <si>
-    <t>0805 Surface Cap</t>
-  </si>
-  <si>
     <t>0805_CAP</t>
   </si>
   <si>
     <t>Capacitor 1206</t>
   </si>
   <si>
-    <t>1206 Surface Cap</t>
-  </si>
-  <si>
     <t>1206_CAP</t>
   </si>
   <si>
     <t>Capacitor 1210</t>
   </si>
   <si>
-    <t>1210 Surface Cap</t>
-  </si>
-  <si>
     <t>1210_CAP</t>
   </si>
   <si>
     <t>Resistor 0201</t>
   </si>
   <si>
-    <t>0201 Surface Res</t>
-  </si>
-  <si>
     <t>0201_RES</t>
   </si>
   <si>
@@ -124,55 +104,100 @@
     <t>Resistor 0402</t>
   </si>
   <si>
-    <t>0402 Surface Res</t>
-  </si>
-  <si>
     <t>0402_RES</t>
   </si>
   <si>
     <t>Resistor 0603</t>
   </si>
   <si>
-    <t>0603 Surface Res</t>
-  </si>
-  <si>
     <t>0603_RES</t>
   </si>
   <si>
     <t>Resistor 0805</t>
   </si>
   <si>
-    <t>0805 Surface Res</t>
-  </si>
-  <si>
     <t>0805_RES</t>
   </si>
   <si>
     <t>Resistor 1206</t>
   </si>
   <si>
-    <t>1206 Surface Res</t>
-  </si>
-  <si>
     <t>1206_RES</t>
   </si>
   <si>
     <t>Resistor 2512</t>
   </si>
   <si>
-    <t>2512 Surface Res</t>
-  </si>
-  <si>
     <t>2512_RES</t>
   </si>
   <si>
     <t>1/4WDIP_RES</t>
   </si>
   <si>
-    <t>1/4W DIP Surface Res</t>
-  </si>
-  <si>
     <t>1/4W DIP Resistor</t>
+  </si>
+  <si>
+    <t>0201 Surface Capacitor</t>
+  </si>
+  <si>
+    <t>0402 Surface Capacitor</t>
+  </si>
+  <si>
+    <t>0603 Surface Capacitor</t>
+  </si>
+  <si>
+    <t>0805 Surface Capacitor</t>
+  </si>
+  <si>
+    <t>1206 Surface Capacitor</t>
+  </si>
+  <si>
+    <t>1210 Surface Capacitor</t>
+  </si>
+  <si>
+    <t>0201 Surface Resistor</t>
+  </si>
+  <si>
+    <t>0402 Surface Resistor</t>
+  </si>
+  <si>
+    <t>0603 Surface Resistor</t>
+  </si>
+  <si>
+    <t>0805 Surface Resistor</t>
+  </si>
+  <si>
+    <t>1206 Surface Resistor</t>
+  </si>
+  <si>
+    <t>2512 Surface Resistor</t>
+  </si>
+  <si>
+    <t>1/4W DIP Surface Resistor</t>
+  </si>
+  <si>
+    <t>Molex 2x2mm</t>
+  </si>
+  <si>
+    <t>2 pin 2mm Molex</t>
+  </si>
+  <si>
+    <t>3 pin 2mm Molex</t>
+  </si>
+  <si>
+    <t>\Connector_Library\Connector.PcbLib</t>
+  </si>
+  <si>
+    <t>\Connector_Library\Connector.SchLib</t>
+  </si>
+  <si>
+    <t>2PIN_2MM_MOLEX</t>
+  </si>
+  <si>
+    <t>3PIN_2MM_MOLEX</t>
+  </si>
+  <si>
+    <t>Molex 3x2mm</t>
   </si>
 </sst>
 </file>
@@ -364,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,7 +411,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,14 +729,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
@@ -742,119 +768,119 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,16 +905,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -914,142 +940,225 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B393E5B-AC77-4E22-B55E-52795DD895F3}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergenPiri\Desktop\Projects\Other Folders\My_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E866A16-70A3-47A8-9EE7-B88E559A4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
@@ -203,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B31341-7EBF-45D4-8C01-C82BBE4DD72E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1084,11 +1083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B393E5B-AC77-4E22-B55E-52795DD895F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database_Main.xlsx
+++ b/Database_Main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -412,6 +418,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +786,7 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -798,7 +806,7 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -818,7 +826,7 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -838,7 +846,7 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -858,7 +866,7 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -878,7 +886,7 @@
       <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -896,6 +904,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1086,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
